--- a/data/raw_bus.xlsx
+++ b/data/raw_bus.xlsx
@@ -558,12 +558,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bektemir Tumani</t>
+          <t>Bektemir</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Yakkasaroy Tumani</t>
+          <t>Yakkasaray</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -1129,12 +1129,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Sergeli</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Sergeli</t>
         </is>
       </c>
     </row>
@@ -1318,12 +1318,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -1892,11 +1892,7 @@
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1956,12 +1952,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2019,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2086,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
     </row>
@@ -2155,11 +2151,7 @@
           <t>mavzesi   - Yunusobod mebel do‘koni</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2220,12 +2212,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
     </row>
@@ -2287,10 +2279,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>Yunusabad</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Mirabad</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2413,7 +2409,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -2476,7 +2472,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2539,7 +2535,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2657,12 +2653,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2776,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2893,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -3015,7 +3011,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Yangi hayot tumani</t>
+          <t>Yangi hayot</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3082,12 +3078,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Yangi hayot tumani</t>
+          <t>Sergeli</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Yangi hayot tumani</t>
+          <t>Yangi hayot</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -3267,12 +3263,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Yangi hayot tumani</t>
+          <t>Yangi hayot</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3330,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -3396,11 +3392,7 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3513,7 +3505,11 @@
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Almazar</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3572,11 +3568,7 @@
           <t>Nazarbek qo‘rg‘oni</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Yashnobod Tumani</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -3692,12 +3684,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Yangi Toshkent Tumani</t>
+          <t>Yangi Tashkent</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3807,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Bektemir Tumani</t>
+          <t>Bektemir</t>
         </is>
       </c>
     </row>
@@ -3875,14 +3867,10 @@
           <t>Chinni bozori</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3932,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Yakkasaray</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -4062,12 +4050,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4117,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -4192,12 +4180,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -4257,11 +4245,7 @@
           <t>mavzesi   -  Toshkent MUM</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -4322,14 +4306,10 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+          <t>Yashnabad</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4389,7 +4369,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -4448,7 +4428,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -4505,11 +4485,7 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Yunusobod Tumani</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -4681,7 +4657,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Yakkasaroy Tumani</t>
+          <t>Yakkasaray</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4719,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -4806,7 +4782,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -4870,7 +4846,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4909,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4971,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -5054,7 +5030,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -5117,7 +5093,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -5185,7 +5161,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5224,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5400,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -5485,11 +5461,7 @@
           <t>Tariqteshar mahallasi</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -5546,7 +5518,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -5609,7 +5581,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -5673,7 +5645,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5707,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -5803,7 +5775,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Sergeli</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5838,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
+          <t>Mirzo Ulugbek</t>
         </is>
       </c>
     </row>
@@ -5927,11 +5899,7 @@
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5991,7 +5959,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -6055,7 +6023,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6085,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -6181,7 +6149,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
     </row>
@@ -6244,7 +6212,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6274,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -6369,14 +6337,10 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+          <t>Chilanzar</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6436,7 +6400,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -6499,7 +6463,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -6562,7 +6526,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -6623,11 +6587,7 @@
           <t>Kensoy qo‘rg‘.qishloq.xo‘j.koll.</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -6688,7 +6648,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -6751,7 +6711,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -6814,12 +6774,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6841,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -6999,12 +6959,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -7064,11 +7024,7 @@
           <t>mavzesi    Yunusobod mavzesi 17-daha</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -7129,7 +7085,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -7192,7 +7148,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -7310,7 +7266,7 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -7487,12 +7443,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -7666,11 +7622,7 @@
           <t>mavzesi     Yunusobod dexkon bozori</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Mirzo Ulug‘bek Tumani</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -7729,11 +7681,7 @@
           <t>Moliya akademik litseyi -</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -7794,7 +7742,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -7913,7 +7861,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7923,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -8038,12 +7986,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -8105,12 +8053,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
     </row>
@@ -8172,7 +8120,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -8235,7 +8183,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -8298,7 +8246,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -8361,12 +8309,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
     </row>
@@ -8483,7 +8431,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Yashnobod Tumani</t>
+          <t>Yashnabad</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -8605,7 +8553,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Sirgali Tumani</t>
+          <t>Sergeli</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -8668,12 +8616,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Yangi hayot tumani</t>
+          <t>Yangi hayot</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Bektemir Tumani</t>
+          <t>Bektemir</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8848,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -8963,7 +8911,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Bektemir Tumani</t>
+          <t>Bektemir</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -9026,7 +8974,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -9089,7 +9037,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Bektemir Tumani</t>
+          <t>Bektemir</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -9264,14 +9212,10 @@
           <t>mavzesi  -   Gulobod ko‘chasi</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -9331,14 +9275,10 @@
           <t>Ko‘kcha Oqlon mahallasi</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -9400,12 +9340,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -9467,12 +9407,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -9534,12 +9474,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9541,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Yangi Toshkent Tumani</t>
+          <t>Yangi Tashkent</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -9669,7 +9609,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9671,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Yangi Toshkent Tumani</t>
+          <t>Yangi Tashkent</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
     </row>
@@ -9798,12 +9738,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Mirobod Tumani</t>
+          <t>Mirabad</t>
         </is>
       </c>
     </row>
@@ -9865,12 +9805,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
     </row>
@@ -9930,11 +9870,7 @@
           <t>mavzesi  -  M.Yusuf ko‘chasi</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -10050,7 +9986,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Shayhontohur Tumani</t>
+          <t>Shaykhantahur</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -10231,7 +10167,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -10294,7 +10230,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -10362,7 +10298,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Chilonzor Tumani</t>
+          <t>Chilanzar</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10360,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Yakkasaroy Tumani</t>
+          <t>Yakkasaray</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -10485,14 +10421,10 @@
           <t>Chinni bozori</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Shayhontohur Tumani</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Yunusobod Tumani</t>
+          <t>Yunusabad</t>
         </is>
       </c>
     </row>
@@ -10670,11 +10602,7 @@
           <t>Chilonzor buyum bozori</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Yashnobod Tumani</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -10735,12 +10663,12 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Olmazor Tumani</t>
+          <t>Almazar</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Yakkasaroy Tumani</t>
+          <t>Yakkasaray</t>
         </is>
       </c>
     </row>
